--- a/src/main/resources/数据统计模版1.xlsx
+++ b/src/main/resources/数据统计模版1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27900" windowHeight="14040"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="1.来源" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="霸屏" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.来源'!$A$1:$F$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1.来源'!$A$1:$F$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2.原始数据'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3.醒'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4.多人'!#REF!</definedName>
@@ -33,14 +33,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="26" r:id="rId10"/>
-    <pivotCache cacheId="27" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="83">
   <si>
     <t>序号</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>美的</t>
-  </si>
-  <si>
-    <t>美的2</t>
   </si>
   <si>
     <t>微博</t>
@@ -207,164 +201,94 @@
     <t>求和项:是否醒</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/7186370005/4822238190111245</t>
-  </si>
-  <si>
-    <t>lee品牌认领</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/1914085333/4822334101784808</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/3196770410/4822599579994406</t>
-  </si>
-  <si>
-    <t>特步</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/1752698114/4822644882411016</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/7720701842/4822674573886241</t>
-  </si>
-  <si>
-    <t>CHINISM品牌认证</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/6539391448/4823085126256813</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/6446798565/4823013973034120</t>
-  </si>
-  <si>
     <t>高露洁</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2775934450/4822992389406878</t>
+    <t>10-21</t>
   </si>
   <si>
-    <t>SavageStudio品牌认证</t>
+    <t>罗西尼</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/7754915355/4822989943865855</t>
+    <t>https://m.weibo.cn/2495305234/4826937341510051</t>
   </si>
   <si>
-    <t>五谷道场</t>
+    <t>10-20</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2316518354/4823028616400726</t>
+    <t>https://m.weibo.cn/2495305234/4826585846256086</t>
   </si>
   <si>
-    <t>美的总结视频</t>
+    <t>10-19</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/3196770410/4823113923826361</t>
+    <t>https://m.weibo.cn/2495305234/4826250050536427</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2775934450/4823354558648340</t>
+    <t>10-17</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/5330895013/4823459689666143</t>
+    <t>https://m.weibo.cn/2775934450/4825528886888387</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/7731939457/4823389451062969</t>
+    <t>10-18</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/1644855075/4823295407686364</t>
+    <t>森马官方</t>
   </si>
   <si>
-    <t>流行音乐</t>
+    <t>https://m.weibo.cn/2618782243/4825861070524956</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2412421034/4823761759764675</t>
+    <t>森马</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2775934450/4823671645146674</t>
+    <t>https://m.weibo.cn/1913371173/4825861087822368</t>
   </si>
   <si>
-    <t>影石</t>
+    <t>10-22</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/5558240479/4824568390226045</t>
+    <t>波司登</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2412421034/4824509822278421</t>
+    <t>https://m.weibo.cn/2951605050/4827069030340823</t>
   </si>
   <si>
-    <t>高露洁转发</t>
+    <t>10-15</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2775934450/4824517221026166</t>
+    <t>金领冠</t>
   </si>
   <si>
-    <t>TIANC品牌认证</t>
+    <t>https://m.weibo.cn/2360878517/4824774961008991</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/5469066602/4824475406961183</t>
+    <t>https://m.weibo.cn/2360878517/4826706642998312</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/2775934450/4824441718051321</t>
+    <t>TIWILLTANG认领</t>
   </si>
   <si>
-    <t>PCMY品牌认证</t>
+    <t>https://m.weibo.cn/2445496265/4826609989715513</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/5880593455/4824441064000876</t>
+    <t>风向榜</t>
   </si>
   <si>
-    <r>
-      <t>13DE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MARZO品牌认证</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>https://m.weibo.cn/2412421034/4826219197237008</t>
   </si>
   <si>
-    <t>https://m.weibo.cn/3196770410/4822240111102574</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>10-16</t>
   </si>
   <si>
-    <t>智库新途-美的</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>https://m.weibo.cn/2775934450/4825166489588144</t>
   </si>
   <si>
-    <t>营销新说-思加图</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>昕薇</t>
   </si>
   <si>
-    <t>央广打歌-小镇姑娘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>华商网-秋天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>1014</t>
+    <t>https://m.weibo.cn/1729930211/4825283166735927</t>
   </si>
 </sst>
 </file>
@@ -460,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,9 +429,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -984,7 +905,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0">
@@ -1151,7 +1072,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:E24" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" showAll="0" sortType="descending">
@@ -1364,7 +1285,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0">
@@ -1531,7 +1452,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:F5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0">
@@ -1685,7 +1606,180 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B1:N5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="6"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea type="none" outline="0" fieldPosition="0"/>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:点赞" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="AA1:AM5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -1853,179 +1947,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="求和项:是否醒" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B1:N5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="9">
-        <item x="6"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea type="none" outline="0" fieldPosition="0"/>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和项:点赞" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2294,10 +2215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2336,20 +2257,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>6</v>
+        <v>71</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
       </c>
       <c r="D2" s="11">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>91</v>
+      <c r="E2" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="F2" s="15" t="str">
         <f>RIGHT(E2,16)</f>
-        <v>4822240111102574</v>
+        <v>4824774961008991</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2357,20 +2278,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="11">
         <v>3</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F3" s="15" t="str">
-        <f t="shared" ref="F3:F25" si="0">RIGHT(E3,16)</f>
-        <v>4822238190111245</v>
+        <f>RIGHT(E3,16)</f>
+        <v>4825166489588144</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2378,20 +2299,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D4" s="11">
         <v>1</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4822334101784808</v>
+        <f>RIGHT(E4,16)</f>
+        <v>4825283166735927</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2399,20 +2320,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="D5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4822599579994406</v>
+        <f>RIGHT(E5,16)</f>
+        <v>4825528886888387</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2420,20 +2341,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4822644882411016</v>
+        <f>RIGHT(E6,16)</f>
+        <v>4825861070524956</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2441,20 +2362,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4822674573886241</v>
+        <f>RIGHT(E7,16)</f>
+        <v>4825861087822368</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2462,20 +2383,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823085126256813</v>
+        <f>RIGHT(E8,16)</f>
+        <v>4826250050536427</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2483,20 +2404,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>90</v>
+        <v>59</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="F9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823013973034120</v>
+        <f>RIGHT(E9,16)</f>
+        <v>4826219197237008</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2504,20 +2425,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4822992389406878</v>
+        <f>RIGHT(E10,16)</f>
+        <v>4826585846256086</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2525,20 +2446,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D11" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4822989943865855</v>
+        <f>RIGHT(E11,16)</f>
+        <v>4826706642998312</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2546,20 +2467,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D12" s="11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823028616400726</v>
+        <f>RIGHT(E12,16)</f>
+        <v>4826609989715513</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2567,20 +2488,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D13" s="11">
         <v>1</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>72</v>
+      <c r="E13" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="F13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823113923826361</v>
+        <f>RIGHT(E13,16)</f>
+        <v>4826937341510051</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2588,260 +2509,31 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D14" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823354558648340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="11">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823459689666143</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="11">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823389451062969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="11">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823295407686364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="11">
-        <v>9</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823761759764675</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="11">
-        <v>3</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4823671645146674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4824568390226045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="11">
-        <v>9</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4824509822278421</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4824517221026166</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="11">
-        <v>1</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4824475406961183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11">
-        <v>23</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="11">
-        <v>1</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4824441718051321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="11">
-        <v>24</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>4824441064000876</v>
+        <f>RIGHT(E14,16)</f>
+        <v>4827069030340823</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F21"/>
+  <autoFilter ref="A1:F14">
+    <sortState ref="A2:F14">
+      <sortCondition ref="B1:B14"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2866,22 +2558,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -2889,25 +2581,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="10">
         <v>320</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -2915,25 +2607,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="10">
         <v>259</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -2941,25 +2633,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10">
         <v>231</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -2967,25 +2659,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10">
         <v>204</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -2993,25 +2685,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="10">
         <v>163</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3019,25 +2711,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="10">
         <v>159</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3045,25 +2737,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="10">
         <v>112</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3071,25 +2763,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10">
         <v>107</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3097,25 +2789,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="10">
         <v>86</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3123,25 +2815,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="10">
         <v>76</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3171,22 +2863,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -3194,25 +2886,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="10">
         <v>320</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -3220,25 +2912,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="10">
         <v>259</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -3246,25 +2938,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10">
         <v>231</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -3272,25 +2964,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10">
         <v>204</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -3298,25 +2990,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="10">
         <v>163</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -3324,25 +3016,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="10">
         <v>159</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -3350,25 +3042,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="10">
         <v>112</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
@@ -3376,25 +3068,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10">
         <v>107</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
@@ -3402,25 +3094,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="10">
         <v>86</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
@@ -3428,25 +3120,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="10">
         <v>76</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3476,25 +3168,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3502,25 +3194,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="10">
         <v>320</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7">
         <v>1</v>
@@ -3531,25 +3223,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="10">
         <v>259</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I3" s="7">
         <v>1</v>
@@ -3560,25 +3252,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10">
         <v>231</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
         <v>1</v>
@@ -3589,25 +3281,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="10">
         <v>204</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
         <v>1</v>
@@ -3618,25 +3310,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="10">
         <v>163</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="7">
         <v>1</v>
@@ -3647,25 +3339,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="10">
         <v>159</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
         <v>1</v>
@@ -3676,25 +3368,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="10">
         <v>112</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
         <v>1</v>
@@ -3705,25 +3397,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>15</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" s="10">
         <v>107</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
@@ -3734,25 +3426,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G10" s="10">
         <v>86</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
         <v>1</v>
@@ -3763,25 +3455,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="10">
         <v>76</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
         <v>1</v>
@@ -3812,10 +3504,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -3823,7 +3515,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>738</v>
@@ -3837,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>367</v>
@@ -3851,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>231</v>
@@ -3860,7 +3552,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3871,7 +3563,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -3880,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3891,7 +3583,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>107</v>
@@ -3903,13 +3595,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -3917,7 +3609,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>86</v>
@@ -3946,7 +3638,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>76</v>
@@ -3975,7 +3667,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -3998,7 +3690,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1717</v>
@@ -5057,10 +4749,10 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
@@ -5082,7 +4774,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>320</v>
@@ -5105,7 +4797,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
@@ -5116,7 +4808,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>259</v>
@@ -5125,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="e">
         <f>GETPIVOTDATA("求和项:点赞",$B$1,"序号",881,"id","杰克爱穿jk")</f>
@@ -5151,13 +4843,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
@@ -5165,7 +4857,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>231</v>
@@ -5231,7 +4923,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>204</v>
@@ -5297,7 +4989,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11">
         <v>163</v>
@@ -5348,7 +5040,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>159</v>
@@ -5384,7 +5076,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15">
         <v>112</v>
@@ -5420,7 +5112,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17">
         <v>107</v>
@@ -5448,7 +5140,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>86</v>
@@ -5476,7 +5168,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>76</v>
@@ -5490,7 +5182,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -5498,7 +5190,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -5506,7 +5198,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D24">
         <v>1717</v>
@@ -6386,10 +6078,10 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -6397,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>738</v>
@@ -6411,7 +6103,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>367</v>
@@ -6425,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>231</v>
@@ -6434,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6445,7 +6137,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>112</v>
@@ -6454,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6465,7 +6157,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>86</v>
@@ -6477,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
@@ -6491,7 +6183,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>107</v>
@@ -6520,7 +6212,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>76</v>
@@ -6549,7 +6241,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
@@ -6572,7 +6264,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>1717</v>
@@ -7643,10 +7335,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
@@ -7666,7 +7358,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.15">
@@ -7674,7 +7366,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -7691,7 +7383,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -7705,7 +7397,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -7725,7 +7417,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.15">
@@ -7742,19 +7434,19 @@
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
@@ -8827,16 +8519,16 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AB1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.15">
@@ -8844,7 +8536,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -8877,13 +8569,13 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -8916,10 +8608,10 @@
         <v>10</v>
       </c>
       <c r="AL2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.15">
@@ -8927,10 +8619,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.15">
@@ -8938,7 +8630,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>320</v>
@@ -8974,7 +8666,7 @@
         <v>1717</v>
       </c>
       <c r="AA4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB4">
         <v>1</v>
@@ -9015,7 +8707,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>320</v>
@@ -9051,7 +8743,7 @@
         <v>1717</v>
       </c>
       <c r="AA5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AB5">
         <v>1</v>

--- a/src/main/resources/数据统计模版1.xlsx
+++ b/src/main/resources/数据统计模版1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="27900" windowHeight="14040"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="27900" windowHeight="14040"/>
   </bookViews>
   <sheets>
     <sheet name="1.来源" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,14 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
-    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="160">
   <si>
     <t>序号</t>
   </si>
@@ -201,94 +201,342 @@
     <t>求和项:是否醒</t>
   </si>
   <si>
-    <t>高露洁</t>
-  </si>
-  <si>
-    <t>10-21</t>
-  </si>
-  <si>
-    <t>罗西尼</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2495305234/4826937341510051</t>
-  </si>
-  <si>
-    <t>10-20</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2495305234/4826585846256086</t>
-  </si>
-  <si>
-    <t>10-19</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2495305234/4826250050536427</t>
-  </si>
-  <si>
-    <t>10-17</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2775934450/4825528886888387</t>
-  </si>
-  <si>
-    <t>10-18</t>
-  </si>
-  <si>
-    <t>森马官方</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2618782243/4825861070524956</t>
-  </si>
-  <si>
-    <t>森马</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/1913371173/4825861087822368</t>
-  </si>
-  <si>
-    <t>10-22</t>
-  </si>
-  <si>
-    <t>波司登</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2951605050/4827069030340823</t>
-  </si>
-  <si>
-    <t>10-15</t>
-  </si>
-  <si>
-    <t>金领冠</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2360878517/4824774961008991</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2360878517/4826706642998312</t>
-  </si>
-  <si>
-    <t>TIWILLTANG认领</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2445496265/4826609989715513</t>
-  </si>
-  <si>
-    <t>风向榜</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2412421034/4826219197237008</t>
-  </si>
-  <si>
-    <t>10-16</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/2775934450/4825166489588144</t>
-  </si>
-  <si>
-    <t>昕薇</t>
-  </si>
-  <si>
-    <t>https://m.weibo.cn/1729930211/4825283166735927</t>
+    <t>1026</t>
+  </si>
+  <si>
+    <t>密逃芒果tv2</t>
+  </si>
+  <si>
+    <t>1027</t>
+  </si>
+  <si>
+    <t>密逃芒果tv1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829123090842340</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829135145011375</t>
+  </si>
+  <si>
+    <t>密逃芒果tv3</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829154233027249</t>
+  </si>
+  <si>
+    <t>密逃芒果tv4</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829182955099894</t>
+  </si>
+  <si>
+    <t>理想家芒果</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829186499284972</t>
+  </si>
+  <si>
+    <t>快回芒果tv</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829201553164956</t>
+  </si>
+  <si>
+    <t>1028</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1663088660/4829486263307880</t>
+  </si>
+  <si>
+    <t>单人</t>
+  </si>
+  <si>
+    <t>理想家天猫</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1768198384/4829276064713802</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1810457302/4829176446060485</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1810457302/4829667116714943</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1863031871/4829175418193052</t>
+  </si>
+  <si>
+    <t>密逃新浪综艺1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1878335471/4829153327581584</t>
+  </si>
+  <si>
+    <t>密逃新浪综艺投票</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1878335471/4829213519251386</t>
+  </si>
+  <si>
+    <t>密逃芒果贴吧</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/1904671130/4829221207937250</t>
+  </si>
+  <si>
+    <t>密逃微博综艺</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2110705772/4828849286939487</t>
+  </si>
+  <si>
+    <t>密逃微博综艺1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2110705772/4829154799518703</t>
+  </si>
+  <si>
+    <t>密逃浪里投票</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2122079781/4828891888490231</t>
+  </si>
+  <si>
+    <t>密逃五谷</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2316518354/4828860460303639</t>
+  </si>
+  <si>
+    <t>宝时捷表</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2864962532/4828768521163207</t>
+  </si>
+  <si>
+    <t>密逃微博电视</t>
+  </si>
+  <si>
+    <t>解说员1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/5488470179/4829515145023793</t>
+  </si>
+  <si>
+    <t>快回大千</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/5608684688/4828772816126166</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/5608684688/4829508206855124</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/5903947070/4828776703463097</t>
+  </si>
+  <si>
+    <t>德佑预告</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6237011372/4829157287267854</t>
+  </si>
+  <si>
+    <t>德佑官微</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6237011372/4829519678540301</t>
+  </si>
+  <si>
+    <t>快回芒time2</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6544927287/4828761164354631</t>
+  </si>
+  <si>
+    <t>快回芒time1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6544927287/4828766218226011</t>
+  </si>
+  <si>
+    <t>快回芒time</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6544927287/4829152761091892</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6544927287/4829485976781360</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6728889196/4829503841112313</t>
+  </si>
+  <si>
+    <t>密逃快发</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6729667216/4828850683118044</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/6729667216/4829184889193004</t>
+  </si>
+  <si>
+    <t>密逃中国网娱乐</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7422806367/4828897016809195</t>
+  </si>
+  <si>
+    <t>快回点淘1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828760173449480</t>
+  </si>
+  <si>
+    <t>快回点淘2</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828765212115117</t>
+  </si>
+  <si>
+    <t>快回点淘3</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828767723981602</t>
+  </si>
+  <si>
+    <t>快回点淘4</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828795746389389</t>
+  </si>
+  <si>
+    <t>快回点淘5</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828798137140136</t>
+  </si>
+  <si>
+    <t>快回点淘6</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828805467999319</t>
+  </si>
+  <si>
+    <t>点淘签名照</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4828911168659138</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4829152765019499</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4829158159418777</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4829484949177941</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4829515144233056</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4829521435689551</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7511830378/4829545344012470</t>
+  </si>
+  <si>
+    <t>吃货团</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7647662094/4829545347155223</t>
+  </si>
+  <si>
+    <t>密逃观网文娱</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7737756492/4828849944922863</t>
+  </si>
+  <si>
+    <t>星朋友</t>
+  </si>
+  <si>
+    <t>星朋友1</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7779932378/4828782839990557</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/7779932378/4829160612301893</t>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/5405787673/4828848933831350</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想家源氏木语转</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想家箭牌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想家家装城</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回芒果TV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想家箭牌家居</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回微博综艺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/2110705772/4829519662551824</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回大千影业</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解说员晨报文艺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.weibo.cn/5883814680/4829606718472361</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回芒果TIME</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回成熟后期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回点淘1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回点淘2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回点淘3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快回点淘4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -298,7 +546,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,14 +562,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -332,6 +572,22 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -380,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -416,20 +672,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -905,7 +1161,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0">
@@ -1072,7 +1328,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:E24" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" compact="0" showAll="0" sortType="descending">
@@ -1285,7 +1541,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:D10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0">
@@ -1452,7 +1708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B1:F5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField compact="0" showAll="0">
@@ -1606,180 +1862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="B1:N5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
-      <items count="9">
-        <item x="6"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-      <autoSortScope>
-        <pivotArea type="none" outline="0" fieldPosition="0"/>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="求和项:点赞" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="AA1:AM5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -1947,6 +2030,179 @@
   </colItems>
   <dataFields count="1">
     <dataField name="求和项:是否醒" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" createdVersion="5" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B1:N5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="9">
+        <item x="6"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea type="none" outline="0" fieldPosition="0"/>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="求和项:点赞" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2215,325 +2471,1170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.25" style="11"/>
-    <col min="2" max="2" width="6" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="6" style="11" customWidth="1"/>
-    <col min="5" max="5" width="51.375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="18.625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.25" style="12"/>
+    <col min="1" max="1" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.25" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="12">
+        <v>41</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="14" t="str">
+        <f t="shared" ref="F2:F32" si="0">RIGHT(E2,16)</f>
+        <v>4828849286939487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>42</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828891888490231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>43</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828860460303639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>44</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828768521163207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>45</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828848933831350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828772816126166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828776703463097</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>48</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828761164354631</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>49</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828766218226011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>50</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828850683118044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>51</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828897016809195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>52</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828760173449480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>53</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828765212115117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>54</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828767723981602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>55</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828795746389389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>56</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828798137140136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>57</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828805467999319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>58</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828911168659138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>59</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828849944922863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>60</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4828782839990557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>61</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829123090842340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
+        <v>62</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829135145011375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
+        <v>63</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829154233027249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
+        <v>64</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829182955099894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
+        <v>65</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829186499284972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>66</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829201553164956</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>67</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="F28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829276064713802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
+        <v>68</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829176446060485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
+        <v>69</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829175418193052</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
+        <v>70</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829153327581584</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
+        <v>71</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>4829213519251386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
+        <v>72</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="14" t="str">
+        <f t="shared" ref="F33:F54" si="1">RIGHT(E33,16)</f>
+        <v>4829221207937250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
         <v>73</v>
       </c>
-      <c r="F2" s="15" t="str">
-        <f>RIGHT(E2,16)</f>
-        <v>4824774961008991</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="B34" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829154799518703</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
+        <v>74</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829157287267854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
+        <v>75</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829152761091892</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>76</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829184889193004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
+        <v>77</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829152765019499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
+        <v>78</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829158159418777</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
         <v>79</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="11">
-        <v>3</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B40" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="F40" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829160612301893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
         <v>80</v>
       </c>
-      <c r="F3" s="15" t="str">
-        <f>RIGHT(E3,16)</f>
-        <v>4825166489588144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B41" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829486263307880</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
         <v>81</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="B42" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829667116714943</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" s="12">
         <v>82</v>
       </c>
-      <c r="F4" s="15" t="str">
-        <f>RIGHT(E4,16)</f>
-        <v>4825283166735927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="11">
-        <v>3</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="15" t="str">
-        <f>RIGHT(E5,16)</f>
-        <v>4825528886888387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="15" t="str">
-        <f>RIGHT(E6,16)</f>
-        <v>4825861070524956</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="B43" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="15" t="str">
-        <f>RIGHT(E7,16)</f>
-        <v>4825861087822368</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="11">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f>RIGHT(E8,16)</f>
-        <v>4826250050536427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="11">
-        <v>9</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="15" t="str">
-        <f>RIGHT(E9,16)</f>
-        <v>4826219197237008</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="15" t="str">
-        <f>RIGHT(E10,16)</f>
-        <v>4826585846256086</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" s="15" t="str">
-        <f>RIGHT(E11,16)</f>
-        <v>4826706642998312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="15" t="str">
-        <f>RIGHT(E12,16)</f>
-        <v>4826609989715513</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="15" t="str">
-        <f>RIGHT(E13,16)</f>
-        <v>4826937341510051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="11">
+      <c r="C43" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="12" t="s">
+      <c r="E43" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F43" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829519662551824</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="12">
+        <v>83</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829515145023793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="12">
+        <v>84</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829508206855124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="12">
+        <v>85</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="11">
-        <v>2</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="15" t="str">
-        <f>RIGHT(E14,16)</f>
-        <v>4827069030340823</v>
+      <c r="E46" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F46" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829606718472361</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="12">
+        <v>86</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F47" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829519678540301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="12">
+        <v>87</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829485976781360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="12">
+        <v>88</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829503841112313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="12">
+        <v>89</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829484949177941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="12">
+        <v>90</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F51" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829515144233056</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="12">
+        <v>91</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F52" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829521435689551</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="12">
+        <v>92</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829545344012470</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="12">
+        <v>93</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>4829545347155223</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F14">
-    <sortState ref="A2:F14">
+    <sortState ref="A2:F94">
       <sortCondition ref="B1:B14"/>
     </sortState>
   </autoFilter>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E46" r:id="rId1"/>
+    <hyperlink ref="E43" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2837,7 +3938,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3142,7 +4243,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3480,7 +4581,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4720,7 +5821,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -6053,7 +7154,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -7302,7 +8403,7 @@
   <sortState ref="F7:I16">
     <sortCondition descending="1" ref="I7"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -8490,7 +9591,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -9720,7 +10821,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>